--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H2">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I2">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J2">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9392856666666667</v>
+        <v>1.533063666666666</v>
       </c>
       <c r="N2">
-        <v>2.817857</v>
+        <v>4.599190999999999</v>
       </c>
       <c r="O2">
-        <v>0.193119603916127</v>
+        <v>0.2164413688258592</v>
       </c>
       <c r="P2">
-        <v>0.193119603916127</v>
+        <v>0.2164413688258593</v>
       </c>
       <c r="Q2">
-        <v>7.741899297984445</v>
+        <v>19.65149280368622</v>
       </c>
       <c r="R2">
-        <v>69.67709368186</v>
+        <v>176.863435233176</v>
       </c>
       <c r="S2">
-        <v>0.02810383846289617</v>
+        <v>0.03573972702202176</v>
       </c>
       <c r="T2">
-        <v>0.02810383846289616</v>
+        <v>0.03573972702202175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H3">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I3">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J3">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.006819333333334</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N3">
-        <v>6.020458000000001</v>
+        <v>6.020458</v>
       </c>
       <c r="O3">
-        <v>0.4126073339966075</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="P3">
-        <v>0.4126073339966074</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="Q3">
-        <v>16.54086050631556</v>
+        <v>25.72430391820978</v>
       </c>
       <c r="R3">
-        <v>148.86774455684</v>
+        <v>231.518735263888</v>
       </c>
       <c r="S3">
-        <v>0.06004491324600608</v>
+        <v>0.04678421171626641</v>
       </c>
       <c r="T3">
-        <v>0.06004491324600607</v>
+        <v>0.04678421171626641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H4">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I4">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J4">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.907411333333333</v>
+        <v>0.232148</v>
       </c>
       <c r="N4">
-        <v>5.722234</v>
+        <v>0.6964440000000001</v>
       </c>
       <c r="O4">
-        <v>0.3921687876976707</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="P4">
-        <v>0.3921687876976706</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="Q4">
-        <v>15.72150729703556</v>
+        <v>2.975776447242667</v>
       </c>
       <c r="R4">
-        <v>141.49356567332</v>
+        <v>26.781988025184</v>
       </c>
       <c r="S4">
-        <v>0.05707058235492155</v>
+        <v>0.005411977551296506</v>
       </c>
       <c r="T4">
-        <v>0.05707058235492155</v>
+        <v>0.005411977551296504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H5">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I5">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J5">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01023466666666667</v>
+        <v>3.066849333333333</v>
       </c>
       <c r="N5">
-        <v>0.030704</v>
+        <v>9.200548</v>
       </c>
       <c r="O5">
-        <v>0.002104274389594917</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="P5">
-        <v>0.002104274389594917</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="Q5">
-        <v>0.08435746599111113</v>
+        <v>39.31224052490312</v>
       </c>
       <c r="R5">
-        <v>0.7592171939200001</v>
+        <v>353.810164724128</v>
       </c>
       <c r="S5">
-        <v>0.0003062257084602817</v>
+        <v>0.07149628575395288</v>
       </c>
       <c r="T5">
-        <v>0.0003062257084602816</v>
+        <v>0.07149628575395285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.22192133333333</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H6">
-        <v>48.665764</v>
+        <v>38.455336</v>
       </c>
       <c r="I6">
-        <v>0.2864123539488393</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J6">
-        <v>0.2864123539488393</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9392856666666667</v>
+        <v>0.2441633333333333</v>
       </c>
       <c r="N6">
-        <v>2.817857</v>
+        <v>0.73249</v>
       </c>
       <c r="O6">
-        <v>0.193119603916127</v>
+        <v>0.03447152732975291</v>
       </c>
       <c r="P6">
-        <v>0.193119603916127</v>
+        <v>0.03447152732975292</v>
       </c>
       <c r="Q6">
-        <v>15.23701819419422</v>
+        <v>3.129794340737778</v>
       </c>
       <c r="R6">
-        <v>137.133163747748</v>
+        <v>28.16814906664</v>
       </c>
       <c r="S6">
-        <v>0.05531184035128543</v>
+        <v>0.005692086422668838</v>
       </c>
       <c r="T6">
-        <v>0.05531184035128541</v>
+        <v>0.005692086422668837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>48.665764</v>
       </c>
       <c r="I7">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J7">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.006819333333334</v>
+        <v>1.533063666666666</v>
       </c>
       <c r="N7">
-        <v>6.020458000000001</v>
+        <v>4.599190999999999</v>
       </c>
       <c r="O7">
-        <v>0.4126073339966075</v>
+        <v>0.2164413688258592</v>
       </c>
       <c r="P7">
-        <v>0.4126073339966074</v>
+        <v>0.2164413688258593</v>
       </c>
       <c r="Q7">
-        <v>32.55446535554578</v>
+        <v>24.86923819965821</v>
       </c>
       <c r="R7">
-        <v>292.990188199912</v>
+        <v>223.8231437969239</v>
       </c>
       <c r="S7">
-        <v>0.1181758377865233</v>
+        <v>0.0452291229669176</v>
       </c>
       <c r="T7">
-        <v>0.1181758377865233</v>
+        <v>0.0452291229669176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>48.665764</v>
       </c>
       <c r="I8">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J8">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.907411333333333</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N8">
-        <v>5.722234</v>
+        <v>6.020458</v>
       </c>
       <c r="O8">
-        <v>0.3921687876976707</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="P8">
-        <v>0.3921687876976706</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="Q8">
-        <v>30.94187659964178</v>
+        <v>32.55446535554577</v>
       </c>
       <c r="R8">
-        <v>278.476889396776</v>
+        <v>292.990188199912</v>
       </c>
       <c r="S8">
-        <v>0.1123219856297525</v>
+        <v>0.05920607237211126</v>
       </c>
       <c r="T8">
-        <v>0.1123219856297524</v>
+        <v>0.05920607237211127</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>48.665764</v>
       </c>
       <c r="I9">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J9">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01023466666666667</v>
+        <v>0.232148</v>
       </c>
       <c r="N9">
-        <v>0.030704</v>
+        <v>0.6964440000000001</v>
       </c>
       <c r="O9">
-        <v>0.002104274389594917</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="P9">
-        <v>0.002104274389594917</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="Q9">
-        <v>0.1660259575395556</v>
+        <v>3.765886593690666</v>
       </c>
       <c r="R9">
-        <v>1.494233617856</v>
+        <v>33.892979343216</v>
       </c>
       <c r="S9">
-        <v>0.0006026901812781372</v>
+        <v>0.006848933065743947</v>
       </c>
       <c r="T9">
-        <v>0.0006026901812781371</v>
+        <v>0.006848933065743946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.05778</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H10">
-        <v>30.17334</v>
+        <v>48.665764</v>
       </c>
       <c r="I10">
-        <v>0.1775789924082702</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J10">
-        <v>0.1775789924082702</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9392856666666667</v>
+        <v>3.066849333333333</v>
       </c>
       <c r="N10">
-        <v>2.817857</v>
+        <v>9.200548</v>
       </c>
       <c r="O10">
-        <v>0.193119603916127</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="P10">
-        <v>0.193119603916127</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="Q10">
-        <v>9.447128592486667</v>
+        <v>49.7501886265191</v>
       </c>
       <c r="R10">
-        <v>85.02415733238</v>
+        <v>447.7516976386719</v>
       </c>
       <c r="S10">
-        <v>0.03429398467771007</v>
+        <v>0.09047954669745785</v>
       </c>
       <c r="T10">
-        <v>0.03429398467771006</v>
+        <v>0.09047954669745784</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.05778</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H11">
-        <v>30.17334</v>
+        <v>48.665764</v>
       </c>
       <c r="I11">
-        <v>0.1775789924082702</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J11">
-        <v>0.1775789924082702</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.006819333333334</v>
+        <v>0.2441633333333333</v>
       </c>
       <c r="N11">
-        <v>6.020458000000001</v>
+        <v>0.73249</v>
       </c>
       <c r="O11">
-        <v>0.4126073339966075</v>
+        <v>0.03447152732975291</v>
       </c>
       <c r="P11">
-        <v>0.4126073339966074</v>
+        <v>0.03447152732975292</v>
       </c>
       <c r="Q11">
-        <v>20.18414735441333</v>
+        <v>3.960798385817777</v>
       </c>
       <c r="R11">
-        <v>181.65732618972</v>
+        <v>35.64718547235999</v>
       </c>
       <c r="S11">
-        <v>0.07327039463138016</v>
+        <v>0.007203414748819406</v>
       </c>
       <c r="T11">
-        <v>0.07327039463138016</v>
+        <v>0.007203414748819407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H12">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I12">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J12">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.907411333333333</v>
+        <v>1.533063666666666</v>
       </c>
       <c r="N12">
-        <v>5.722234</v>
+        <v>4.599190999999999</v>
       </c>
       <c r="O12">
-        <v>0.3921687876976707</v>
+        <v>0.2164413688258592</v>
       </c>
       <c r="P12">
-        <v>0.3921687876976706</v>
+        <v>0.2164413688258593</v>
       </c>
       <c r="Q12">
-        <v>19.18432356017333</v>
+        <v>44.51343975254577</v>
       </c>
       <c r="R12">
-        <v>172.65891204156</v>
+        <v>400.6209577729119</v>
       </c>
       <c r="S12">
-        <v>0.06964093817332519</v>
+        <v>0.08095558955545491</v>
       </c>
       <c r="T12">
-        <v>0.06964093817332519</v>
+        <v>0.0809555895554549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H13">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I13">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J13">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01023466666666667</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N13">
-        <v>0.030704</v>
+        <v>6.020458</v>
       </c>
       <c r="O13">
-        <v>0.002104274389594917</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="P13">
-        <v>0.002104274389594917</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="Q13">
-        <v>0.1029380257066667</v>
+        <v>58.26922484100621</v>
       </c>
       <c r="R13">
-        <v>0.92644223136</v>
+        <v>524.423023569056</v>
       </c>
       <c r="S13">
-        <v>0.0003736749258547932</v>
+        <v>0.1059729258436657</v>
       </c>
       <c r="T13">
-        <v>0.0003736749258547932</v>
+        <v>0.1059729258436657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.440308333333334</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H14">
-        <v>7.320925000000001</v>
+        <v>87.106832</v>
       </c>
       <c r="I14">
-        <v>0.04308579974893452</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J14">
-        <v>0.04308579974893452</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.9392856666666667</v>
+        <v>0.232148</v>
       </c>
       <c r="N14">
-        <v>2.817857</v>
+        <v>0.6964440000000001</v>
       </c>
       <c r="O14">
-        <v>0.193119603916127</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="P14">
-        <v>0.193119603916127</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="Q14">
-        <v>2.292146639747223</v>
+        <v>6.740558945045334</v>
       </c>
       <c r="R14">
-        <v>20.629319757725</v>
+        <v>60.66503050540801</v>
       </c>
       <c r="S14">
-        <v>0.0083207125819238</v>
+        <v>0.01225890262273501</v>
       </c>
       <c r="T14">
-        <v>0.008320712581923798</v>
+        <v>0.01225890262273501</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.440308333333334</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H15">
-        <v>7.320925000000001</v>
+        <v>87.106832</v>
       </c>
       <c r="I15">
-        <v>0.04308579974893452</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J15">
-        <v>0.04308579974893452</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.006819333333334</v>
+        <v>3.066849333333333</v>
       </c>
       <c r="N15">
-        <v>6.020458000000001</v>
+        <v>9.200548</v>
       </c>
       <c r="O15">
-        <v>0.4126073339966075</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="P15">
-        <v>0.4126073339966074</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="Q15">
-        <v>4.897257942627779</v>
+        <v>89.04784321599288</v>
       </c>
       <c r="R15">
-        <v>44.07532148365001</v>
+        <v>801.430588943936</v>
       </c>
       <c r="S15">
-        <v>0.01777751696751957</v>
+        <v>0.161949305339409</v>
       </c>
       <c r="T15">
-        <v>0.01777751696751957</v>
+        <v>0.1619493053394089</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.440308333333334</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H16">
-        <v>7.320925000000001</v>
+        <v>87.106832</v>
       </c>
       <c r="I16">
-        <v>0.04308579974893452</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J16">
-        <v>0.04308579974893452</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.907411333333333</v>
+        <v>0.2441633333333333</v>
       </c>
       <c r="N16">
-        <v>5.722234</v>
+        <v>0.73249</v>
       </c>
       <c r="O16">
-        <v>0.3921687876976707</v>
+        <v>0.03447152732975291</v>
       </c>
       <c r="P16">
-        <v>0.3921687876976706</v>
+        <v>0.03447152732975292</v>
       </c>
       <c r="Q16">
-        <v>4.654671771827779</v>
+        <v>7.089431485742222</v>
       </c>
       <c r="R16">
-        <v>41.89204594645</v>
+        <v>63.80488337168</v>
       </c>
       <c r="S16">
-        <v>0.01689690585452425</v>
+        <v>0.01289338924899513</v>
       </c>
       <c r="T16">
-        <v>0.01689690585452425</v>
+        <v>0.01289338924899513</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H17">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I17">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J17">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.01023466666666667</v>
+        <v>1.533063666666666</v>
       </c>
       <c r="N17">
-        <v>0.030704</v>
+        <v>4.599190999999999</v>
       </c>
       <c r="O17">
-        <v>0.002104274389594917</v>
+        <v>0.2164413688258592</v>
       </c>
       <c r="P17">
-        <v>0.002104274389594917</v>
+        <v>0.2164413688258593</v>
       </c>
       <c r="Q17">
-        <v>0.02497574235555556</v>
+        <v>5.930340983384666</v>
       </c>
       <c r="R17">
-        <v>0.2247816812</v>
+        <v>53.373068850462</v>
       </c>
       <c r="S17">
-        <v>9.066434496689802E-05</v>
+        <v>0.01078537747798573</v>
       </c>
       <c r="T17">
-        <v>9.066434496689801E-05</v>
+        <v>0.01078537747798573</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.67600733333333</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H18">
-        <v>59.028022</v>
+        <v>11.604882</v>
       </c>
       <c r="I18">
-        <v>0.3473972941216719</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J18">
-        <v>0.3473972941216719</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9392856666666667</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N18">
-        <v>2.817857</v>
+        <v>6.020458</v>
       </c>
       <c r="O18">
-        <v>0.193119603916127</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="P18">
-        <v>0.193119603916127</v>
+        <v>0.2833272570064159</v>
       </c>
       <c r="Q18">
-        <v>18.48139166542822</v>
+        <v>7.762967186217334</v>
       </c>
       <c r="R18">
-        <v>166.332524988854</v>
+        <v>69.866704675956</v>
       </c>
       <c r="S18">
-        <v>0.06708922784231157</v>
+        <v>0.01411833344611237</v>
       </c>
       <c r="T18">
-        <v>0.06708922784231156</v>
+        <v>0.01411833344611237</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.67600733333333</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H19">
-        <v>59.028022</v>
+        <v>11.604882</v>
       </c>
       <c r="I19">
-        <v>0.3473972941216719</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J19">
-        <v>0.3473972941216719</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.006819333333334</v>
+        <v>0.232148</v>
       </c>
       <c r="N19">
-        <v>6.020458000000001</v>
+        <v>0.6964440000000001</v>
       </c>
       <c r="O19">
-        <v>0.4126073339966075</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="P19">
-        <v>0.4126073339966074</v>
+        <v>0.03277517560600478</v>
       </c>
       <c r="Q19">
-        <v>39.48619191934178</v>
+        <v>0.8980167155120002</v>
       </c>
       <c r="R19">
-        <v>355.375727274076</v>
+        <v>8.082150439608002</v>
       </c>
       <c r="S19">
-        <v>0.1433386713651784</v>
+        <v>0.001633202759415362</v>
       </c>
       <c r="T19">
-        <v>0.1433386713651784</v>
+        <v>0.001633202759415361</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.67600733333333</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H20">
-        <v>59.028022</v>
+        <v>11.604882</v>
       </c>
       <c r="I20">
-        <v>0.3473972941216719</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J20">
-        <v>0.3473972941216719</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.907411333333333</v>
+        <v>3.066849333333333</v>
       </c>
       <c r="N20">
-        <v>5.722234</v>
+        <v>9.200548</v>
       </c>
       <c r="O20">
-        <v>0.3921687876976707</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="P20">
-        <v>0.3921687876976706</v>
+        <v>0.4329846712319671</v>
       </c>
       <c r="Q20">
-        <v>37.53023938234978</v>
+        <v>11.86347487503734</v>
       </c>
       <c r="R20">
-        <v>337.772154441148</v>
+        <v>106.771273875336</v>
       </c>
       <c r="S20">
-        <v>0.1362383756851472</v>
+        <v>0.02157583435528698</v>
       </c>
       <c r="T20">
-        <v>0.1362383756851472</v>
+        <v>0.02157583435528698</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.67600733333333</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H21">
-        <v>59.028022</v>
+        <v>11.604882</v>
       </c>
       <c r="I21">
-        <v>0.3473972941216719</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J21">
-        <v>0.3473972941216719</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.01023466666666667</v>
+        <v>0.2441633333333333</v>
       </c>
       <c r="N21">
-        <v>0.030704</v>
+        <v>0.73249</v>
       </c>
       <c r="O21">
-        <v>0.002104274389594917</v>
+        <v>0.03447152732975291</v>
       </c>
       <c r="P21">
-        <v>0.002104274389594917</v>
+        <v>0.03447152732975292</v>
       </c>
       <c r="Q21">
-        <v>0.2013773763875556</v>
+        <v>0.9444955573533333</v>
       </c>
       <c r="R21">
-        <v>1.812396387488</v>
+        <v>8.500460016180002</v>
       </c>
       <c r="S21">
-        <v>0.0007310192290348071</v>
+        <v>0.001717732781449992</v>
       </c>
       <c r="T21">
-        <v>0.0007310192290348069</v>
+        <v>0.001717732781449992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>15.684801</v>
+      </c>
+      <c r="H22">
+        <v>47.05440299999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2020480282522334</v>
+      </c>
+      <c r="J22">
+        <v>0.2020480282522333</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.533063666666666</v>
+      </c>
+      <c r="N22">
+        <v>4.599190999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.2164413688258592</v>
+      </c>
+      <c r="P22">
+        <v>0.2164413688258593</v>
+      </c>
+      <c r="Q22">
+        <v>24.04579853199699</v>
+      </c>
+      <c r="R22">
+        <v>216.4121867879729</v>
+      </c>
+      <c r="S22">
+        <v>0.04373155180347927</v>
+      </c>
+      <c r="T22">
+        <v>0.04373155180347926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15.684801</v>
+      </c>
+      <c r="H23">
+        <v>47.05440299999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2020480282522334</v>
+      </c>
+      <c r="J23">
+        <v>0.2020480282522333</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.006819333333333</v>
+      </c>
+      <c r="N23">
+        <v>6.020458</v>
+      </c>
+      <c r="O23">
+        <v>0.2833272570064159</v>
+      </c>
+      <c r="P23">
+        <v>0.2833272570064159</v>
+      </c>
+      <c r="Q23">
+        <v>31.47656188628599</v>
+      </c>
+      <c r="R23">
+        <v>283.2890569765739</v>
+      </c>
+      <c r="S23">
+        <v>0.05724571362826009</v>
+      </c>
+      <c r="T23">
+        <v>0.05724571362826009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>15.684801</v>
+      </c>
+      <c r="H24">
+        <v>47.05440299999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2020480282522334</v>
+      </c>
+      <c r="J24">
+        <v>0.2020480282522333</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.232148</v>
+      </c>
+      <c r="N24">
+        <v>0.6964440000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.03277517560600478</v>
+      </c>
+      <c r="P24">
+        <v>0.03277517560600478</v>
+      </c>
+      <c r="Q24">
+        <v>3.641195182548</v>
+      </c>
+      <c r="R24">
+        <v>32.770756642932</v>
+      </c>
+      <c r="S24">
+        <v>0.006622159606813964</v>
+      </c>
+      <c r="T24">
+        <v>0.006622159606813963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.684801</v>
+      </c>
+      <c r="H25">
+        <v>47.05440299999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2020480282522334</v>
+      </c>
+      <c r="J25">
+        <v>0.2020480282522333</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.066849333333333</v>
+      </c>
+      <c r="N25">
+        <v>9.200548</v>
+      </c>
+      <c r="O25">
+        <v>0.4329846712319671</v>
+      </c>
+      <c r="P25">
+        <v>0.4329846712319671</v>
+      </c>
+      <c r="Q25">
+        <v>48.10292149031599</v>
+      </c>
+      <c r="R25">
+        <v>432.9262934128439</v>
+      </c>
+      <c r="S25">
+        <v>0.08748369908586047</v>
+      </c>
+      <c r="T25">
+        <v>0.08748369908586044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>15.684801</v>
+      </c>
+      <c r="H26">
+        <v>47.05440299999999</v>
+      </c>
+      <c r="I26">
+        <v>0.2020480282522334</v>
+      </c>
+      <c r="J26">
+        <v>0.2020480282522333</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2441633333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.73249</v>
+      </c>
+      <c r="O26">
+        <v>0.03447152732975291</v>
+      </c>
+      <c r="P26">
+        <v>0.03447152732975292</v>
+      </c>
+      <c r="Q26">
+        <v>3.829653294829999</v>
+      </c>
+      <c r="R26">
+        <v>34.46687965347</v>
+      </c>
+      <c r="S26">
+        <v>0.006964904127819551</v>
+      </c>
+      <c r="T26">
+        <v>0.006964904127819551</v>
       </c>
     </row>
   </sheetData>
